--- a/docs/TestCases.xlsx
+++ b/docs/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden\Desktop\CSU Final Project\NmapDBProject\NmapDBProject\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D379948-91BB-4B4B-BCBE-CAC81FE35D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAA6846-AFD1-4544-8A7F-73CDD7CBC7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98EA1BFC-A074-4667-A049-568BACDA46C8}"/>
+    <workbookView xWindow="-24120" yWindow="2595" windowWidth="24240" windowHeight="13140" xr2:uid="{98EA1BFC-A074-4667-A049-568BACDA46C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>PREPARED BY</t>
   </si>
@@ -184,15 +184,6 @@
     <t>A .db file is created, named to the user's choosing, and the user is able to open the database file in a database browser of their choosing.</t>
   </si>
   <si>
-    <t>A database file is not created.</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>I seem to have forgotten to include a function for a case where the user ONLY selects the upload to database function.</t>
-  </si>
-  <si>
     <t>Test Case 10</t>
   </si>
   <si>
@@ -260,6 +251,9 @@
   </si>
   <si>
     <t>Same reason as above.</t>
+  </si>
+  <si>
+    <t>A database file is created, with the user's desired name and tables.</t>
   </si>
 </sst>
 </file>
@@ -651,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2929E698-0631-450A-AF3F-FC4E94C98D91}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,27 +862,24 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -896,16 +887,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -913,16 +904,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -930,42 +921,42 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>65</v>
       </c>
-      <c r="C21" t="s">
+      <c r="F21" t="s">
         <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
         <v>70</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" t="s">
         <v>71</v>
-      </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
